--- a/sprints/Sprint 2/Sprint2Backlog.xlsx
+++ b/sprints/Sprint 2/Sprint2Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\source\repos\TheTripMaster\sprints\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F3AAE-D82A-4224-B085-A0BD4D7647FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68226F-7AD8-437C-A48C-70E248EE5437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1800" windowWidth="21600" windowHeight="11835" xr2:uid="{910429C6-D83B-4901-A47F-3EEFD7206F48}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="16440" xr2:uid="{910429C6-D83B-4901-A47F-3EEFD7206F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -49,34 +49,46 @@
     <t>Jared</t>
   </si>
   <si>
-    <t>Add Transportation (Web)</t>
-  </si>
-  <si>
-    <t>Remove Transportation (Web)</t>
-  </si>
-  <si>
-    <t>Remove Waypoints (Web)</t>
-  </si>
-  <si>
-    <t>Add Transportation (Desktop)</t>
-  </si>
-  <si>
-    <t>Remove Transportation (Desktop)</t>
-  </si>
-  <si>
-    <t>Remove Waypoints (Desktop)</t>
-  </si>
-  <si>
-    <t>Convert Web to Use Shared Library</t>
-  </si>
-  <si>
-    <t>Create Shared Library</t>
-  </si>
-  <si>
     <t>Jake</t>
   </si>
   <si>
-    <t>Add Sprint 1 Features to Desktop</t>
+    <t>Create web UI for lodging</t>
+  </si>
+  <si>
+    <t>Add lodging (web)</t>
+  </si>
+  <si>
+    <t>Remove lodging (web)</t>
+  </si>
+  <si>
+    <t>Create desktop UI for waypoints</t>
+  </si>
+  <si>
+    <t>Create desktop UI for transportation</t>
+  </si>
+  <si>
+    <t>Create desktop UI for lodging</t>
+  </si>
+  <si>
+    <t>Remove waypoints (desktop)</t>
+  </si>
+  <si>
+    <t>Add transportation (desktop)</t>
+  </si>
+  <si>
+    <t>Remove transportation (desktop)</t>
+  </si>
+  <si>
+    <t>Add lodging (desktop)</t>
+  </si>
+  <si>
+    <t>Remove lodging (desktop)</t>
+  </si>
+  <si>
+    <t>Test data layer in shared library</t>
+  </si>
+  <si>
+    <t>Create test database</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A8C4D-76F2-42BB-9770-D7099FF98D69}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,43 +469,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -501,7 +513,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -512,7 +524,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -523,7 +535,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -534,24 +546,68 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
